--- a/biology/Médecine/Phoenix_Pharmahandel/Phoenix_Pharmahandel.xlsx
+++ b/biology/Médecine/Phoenix_Pharmahandel/Phoenix_Pharmahandel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 PHOENIX Pharmahandel GmbH &amp; Co KG est un groupe allemand, leader européen de la distribution pharmaceutique sur les métiers de la répartition pharmaceutique et de l’activité dépositaire avec 18 % de parts de marché. Son siège est situé à Mannheim (Allemagne).
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1994 : création de PHOENIX Pharmahandel Aktiengesellschaft &amp; Co KG, issu de la fusion des grossistes régionaux allemands F. Reichelt AG (Hambourg), Otto Stumpf GmbH (Berlin), Ferd. Schulze GmbH (Mannheim), Otto Stumpf AG (Nuremberg) et Hageda AG (Cologne). 
 Avec 3.2 milliards d’euros de chiffre d’affaires et une part de marché de 30 %, PHOENIX devint immédiatement leader sur le marché en Allemagne. 
